--- a/Awards/Men/Tennis.xlsx
+++ b/Awards/Men/Tennis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dengjiahao\Desktop\Athlete\Awards\Men\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF49BDA1-4D6A-48B2-B251-ABE39A9E7AB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09EF035B-6839-4BCB-9691-5813B8B80189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5868" yWindow="0" windowWidth="17280" windowHeight="10008" xr2:uid="{B16460EC-9C62-403B-A835-479FF76CC842}"/>
+    <workbookView xWindow="540" yWindow="2140" windowWidth="18660" windowHeight="8660" xr2:uid="{B16460EC-9C62-403B-A835-479FF76CC842}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="102">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -50,24 +50,6 @@
     <t>Juan Carlos Perez</t>
   </si>
   <si>
-    <t xml:space="preserve"> Dan LaFountaine-Nate Fox</t>
-  </si>
-  <si>
-    <t>National All-America</t>
-  </si>
-  <si>
-    <t>NCAA D-III National Qualifiers (Singles First Round)</t>
-  </si>
-  <si>
-    <t>Dan LaFountaine-Nate Fox</t>
-  </si>
-  <si>
-    <t>NCAA D-III National Qualifiers (Doubles Second Round)</t>
-  </si>
-  <si>
-    <t>Dan LaFountaine- Nate Fox</t>
-  </si>
-  <si>
     <t>Felipe Bautista</t>
   </si>
   <si>
@@ -191,60 +173,27 @@
     <t>Dan Malarkey</t>
   </si>
   <si>
-    <t xml:space="preserve">Bowen Mince </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Newcomer of the Year </t>
-  </si>
-  <si>
-    <t>Midwest Confrence Singles Champion (2)</t>
-  </si>
-  <si>
     <t>Lucas Willett</t>
   </si>
   <si>
     <t xml:space="preserve">Aiden Klass </t>
   </si>
   <si>
-    <t>Midwest Confrence Singles Champion (3)</t>
-  </si>
-  <si>
-    <t>Midwest Confrence Doubles Champion (1)</t>
-  </si>
-  <si>
     <t>Albert Bstoen</t>
   </si>
   <si>
-    <t>Midwest Confrence Doubles Champion (3)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Wilder Cooke </t>
   </si>
   <si>
-    <t>Midwest Confrence Singles Champion (1)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Karch Knoll </t>
   </si>
   <si>
-    <t>Midwest Confrence Singles Champion (4)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sam Rudenberg </t>
   </si>
   <si>
-    <t>Midwest Confrence Singles Champion (5)</t>
-  </si>
-  <si>
-    <t>Midwest Confrence Singles Champion (6)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Deuce Daniel </t>
   </si>
   <si>
-    <t>Midwest Confrence Doubles Champion (2)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Lucas Willett </t>
   </si>
   <si>
@@ -269,9 +218,6 @@
     <t>Jack Lunn</t>
   </si>
   <si>
-    <t>Michael ConlinBrandenburg</t>
-  </si>
-  <si>
     <t xml:space="preserve">Henry Johnson </t>
   </si>
   <si>
@@ -375,6 +321,27 @@
   </si>
   <si>
     <t>Midwest Conference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Midwest Confrence Doubles Champion </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Midwest Confrence Singles Champion </t>
+  </si>
+  <si>
+    <t>NCAA D-III National Qualifiers</t>
+  </si>
+  <si>
+    <t>Zack Hasenyager</t>
+  </si>
+  <si>
+    <t>Coach of the Year</t>
+  </si>
+  <si>
+    <t>Paige Madara</t>
+  </si>
+  <si>
+    <t>All-America</t>
   </si>
 </sst>
 </file>
@@ -761,21 +728,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D354BC4C-891C-47E1-BC28-D5D1FA1A309E}">
-  <dimension ref="A1:D249"/>
+  <dimension ref="A1:D254"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="F237" sqref="F237"/>
+    <sheetView tabSelected="1" topLeftCell="A238" workbookViewId="0">
+      <selection activeCell="A242" sqref="A242"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.109375" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" customWidth="1"/>
-    <col min="3" max="3" width="56.44140625" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.08984375" customWidth="1"/>
+    <col min="2" max="2" width="16.36328125" customWidth="1"/>
+    <col min="3" max="3" width="56.453125" customWidth="1"/>
+    <col min="4" max="4" width="17.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -786,864 +753,864 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1">
         <v>2024</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1">
         <v>2023</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1">
         <v>2014</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="B5" s="1">
         <v>2009</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="B6" s="1">
-        <v>2021</v>
+        <v>2009</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>2021</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B8" s="1">
         <v>2020</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B9" s="1">
         <v>2020</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B10" s="1">
         <v>2020</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B11" s="1">
         <v>2020</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B12" s="1">
         <v>2020</v>
       </c>
       <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>17</v>
-      </c>
-      <c r="D12" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>23</v>
       </c>
       <c r="B13" s="1">
         <v>2020</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B14" s="1">
         <v>2020</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B15" s="1">
         <v>2020</v>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B16" s="1">
         <v>2020</v>
       </c>
       <c r="C16" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B17" s="1">
         <v>2020</v>
       </c>
       <c r="C17" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D17" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B18" s="1">
         <v>2020</v>
       </c>
       <c r="C18" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D18" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B19" s="1">
         <v>2020</v>
       </c>
       <c r="C19" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D19" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B20" s="1">
         <v>2020</v>
       </c>
       <c r="C20" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D20" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B21" s="1">
         <v>2020</v>
       </c>
       <c r="C21" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D21" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B22" s="1">
         <v>2020</v>
       </c>
       <c r="C22" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D22" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B23" s="1">
         <v>2020</v>
       </c>
       <c r="C23" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D23" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B24" s="1">
         <v>2020</v>
       </c>
       <c r="C24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
         <v>17</v>
-      </c>
-      <c r="D24" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>2020</v>
       </c>
       <c r="C25" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D25" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B26" s="1">
         <v>2020</v>
       </c>
       <c r="C26" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D26" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B27" s="1">
         <v>2020</v>
       </c>
       <c r="C27" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D27" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B28" s="1">
         <v>2020</v>
       </c>
       <c r="C28" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D28" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B29" s="1">
         <v>2020</v>
       </c>
       <c r="C29" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D29" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B30" s="1">
         <v>2020</v>
       </c>
       <c r="C30" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D30" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B31" s="1">
         <v>2020</v>
       </c>
       <c r="C31" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D31" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B32" s="1">
         <v>2019</v>
       </c>
       <c r="C32" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D32" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B33" s="1">
         <v>2019</v>
       </c>
       <c r="C33" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D33" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B34" s="1">
         <v>2019</v>
       </c>
       <c r="C34" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D34" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B35" s="1">
         <v>2019</v>
       </c>
       <c r="C35" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
         <v>17</v>
-      </c>
-      <c r="D35" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>23</v>
       </c>
       <c r="B36" s="1">
         <v>2019</v>
       </c>
       <c r="C36" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D36" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B37" s="1">
         <v>2019</v>
       </c>
       <c r="C37" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D37" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B38" s="1">
         <v>2019</v>
       </c>
       <c r="C38" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D38" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B39" s="1">
         <v>2019</v>
       </c>
       <c r="C39" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D39" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B40" s="1">
         <v>2019</v>
       </c>
       <c r="C40" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D40" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B41" s="1">
         <v>2018</v>
       </c>
       <c r="C41" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D41" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B42" s="1">
         <v>2018</v>
       </c>
       <c r="C42" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D42" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B43" s="1">
         <v>2018</v>
       </c>
       <c r="C43" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D43" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B44" s="1">
         <v>2018</v>
       </c>
       <c r="C44" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D44" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B45" s="1">
         <v>2018</v>
       </c>
       <c r="C45" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D45" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B46" s="1">
         <v>2018</v>
       </c>
       <c r="C46" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D46" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B47" s="1">
         <v>2018</v>
       </c>
       <c r="C47" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D47" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B48" s="1">
         <v>2017</v>
       </c>
       <c r="C48" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D48" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B49" s="1">
         <v>2017</v>
       </c>
       <c r="C49" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D49" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B50" s="1">
         <v>2017</v>
       </c>
       <c r="C50" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D50" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B51" s="1">
         <v>2017</v>
       </c>
       <c r="C51" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D51" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B52" s="1">
         <v>2016</v>
       </c>
       <c r="C52" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D52" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B53" s="1">
         <v>2016</v>
       </c>
       <c r="C53" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D53" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B54" s="1">
         <v>2015</v>
       </c>
       <c r="C54" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D54" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B55" s="1">
         <v>2015</v>
       </c>
       <c r="C55" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D55" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B56" s="1">
         <v>2015</v>
       </c>
       <c r="C56" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D56" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B57" s="1">
         <v>2015</v>
       </c>
       <c r="C57" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D57" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B58" s="1">
         <v>2013</v>
       </c>
       <c r="C58" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D58" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B59" s="1">
         <v>2013</v>
       </c>
       <c r="C59" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D59" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B60" s="1">
         <v>2012</v>
       </c>
       <c r="C60" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D60" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B61" s="1">
         <v>2012</v>
       </c>
       <c r="C61" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D61" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B62" s="1">
         <v>2011</v>
       </c>
       <c r="C62" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D62" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>3</v>
       </c>
@@ -1651,167 +1618,167 @@
         <v>2011</v>
       </c>
       <c r="C63" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D63" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B64" s="1">
         <v>2008</v>
       </c>
       <c r="C64" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D64" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B65" s="1">
         <v>2008</v>
       </c>
       <c r="C65" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D65" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B66" s="1">
         <v>2007</v>
       </c>
       <c r="C66" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D66" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="B67" s="1">
         <v>2024</v>
       </c>
       <c r="C67" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="D67" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B68" s="1">
         <v>2024</v>
       </c>
       <c r="C68" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="D68" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B69" s="1">
         <v>2019</v>
       </c>
       <c r="C69" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="D69" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B70" s="1">
         <v>2019</v>
       </c>
       <c r="C70" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="D70" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="B71" s="1">
         <v>2016</v>
       </c>
       <c r="C71" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="D71" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="B72" s="1">
         <v>2016</v>
       </c>
       <c r="C72" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="D72" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B73" s="1">
         <v>2012</v>
       </c>
       <c r="C73" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="D73" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B74" s="1">
         <v>2012</v>
       </c>
       <c r="C74" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="D74" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>3</v>
       </c>
@@ -1819,27 +1786,27 @@
         <v>2011</v>
       </c>
       <c r="C75" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="D75" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B76" s="1">
         <v>2011</v>
       </c>
       <c r="C76" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="D76" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>3</v>
       </c>
@@ -1847,419 +1814,419 @@
         <v>2010</v>
       </c>
       <c r="C77" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="D77" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B78" s="1">
         <v>2010</v>
       </c>
       <c r="C78" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="D78" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B79" s="1">
         <v>2009</v>
       </c>
       <c r="C79" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="D79" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="B80" s="1">
         <v>2009</v>
       </c>
       <c r="C80" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="D80" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B81" s="1">
         <v>2008</v>
       </c>
       <c r="C81" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="D81" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="B82" s="1">
         <v>2008</v>
       </c>
       <c r="C82" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="D82" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="B83" s="1">
         <v>2006</v>
       </c>
       <c r="C83" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="D83" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="B84" s="1">
         <v>2006</v>
       </c>
       <c r="C84" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="D84" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B85" s="1">
         <v>2002</v>
       </c>
       <c r="C85" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="D85" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="B86" s="1">
         <v>2002</v>
       </c>
       <c r="C86" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="D86" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="B87" s="1">
         <v>2001</v>
       </c>
       <c r="C87" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="D87" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B88" s="1">
         <v>2001</v>
       </c>
       <c r="C88" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="D88" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="B89" s="1">
         <v>2023</v>
       </c>
       <c r="C89" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="D89" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="B90" s="1">
         <v>2023</v>
       </c>
       <c r="C90" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="D90" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="B91" s="1">
         <v>2022</v>
       </c>
       <c r="C91" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="D91" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="B92" s="1">
         <v>2022</v>
       </c>
       <c r="C92" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="D92" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B93" s="1">
         <v>2019</v>
       </c>
       <c r="C93" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="D93" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B94" s="1">
         <v>2019</v>
       </c>
       <c r="C94" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="D94" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B95" s="1">
         <v>2018</v>
       </c>
       <c r="C95" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="D95" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B96" s="1">
         <v>2018</v>
       </c>
       <c r="C96" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="D96" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B97" s="1">
         <v>2016</v>
       </c>
       <c r="C97" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="D97" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="B98" s="1">
         <v>2016</v>
       </c>
       <c r="C98" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="D98" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B99" s="1">
         <v>2015</v>
       </c>
       <c r="C99" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="D99" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="B100" s="1">
         <v>2015</v>
       </c>
       <c r="C100" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="D100" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B101" s="1">
         <v>2014</v>
       </c>
       <c r="C101" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="D101" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="B102" s="1">
         <v>2014</v>
       </c>
       <c r="C102" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="D102" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B103" s="1">
         <v>2013</v>
       </c>
       <c r="C103" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="D103" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B104" s="1">
         <v>2013</v>
       </c>
       <c r="C104" t="s">
+        <v>95</v>
+      </c>
+      <c r="D104" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
         <v>68</v>
-      </c>
-      <c r="D104" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
-        <v>86</v>
       </c>
       <c r="B105" s="1">
         <v>2010</v>
       </c>
       <c r="C105" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="D105" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="B106" s="1">
         <v>2010</v>
       </c>
       <c r="C106" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="D106" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>3</v>
       </c>
@@ -2267,27 +2234,27 @@
         <v>2009</v>
       </c>
       <c r="C107" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="D107" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="B108" s="1">
         <v>2009</v>
       </c>
       <c r="C108" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="D108" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>3</v>
       </c>
@@ -2295,671 +2262,671 @@
         <v>2008</v>
       </c>
       <c r="C109" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="D109" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="B110" s="1">
         <v>2008</v>
       </c>
       <c r="C110" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="D110" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="B111" s="1">
         <v>2007</v>
       </c>
       <c r="C111" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="D111" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="B112" s="1">
         <v>2007</v>
       </c>
       <c r="C112" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="D112" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="B113" s="1">
         <v>2005</v>
       </c>
       <c r="C113" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="D113" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="B114" s="1">
         <v>2005</v>
       </c>
       <c r="C114" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="D114" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="B115" s="1">
         <v>2004</v>
       </c>
       <c r="C115" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="D115" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="B116" s="1">
         <v>2004</v>
       </c>
       <c r="C116" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="D116" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="B117" s="1">
         <v>2024</v>
       </c>
       <c r="C117" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="D117" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="B118" s="1">
         <v>2024</v>
       </c>
       <c r="C118" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="D118" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="B119" s="1">
         <v>2023</v>
       </c>
       <c r="C119" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="D119" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="B120" s="1">
         <v>2023</v>
       </c>
       <c r="C120" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="D120" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="B121" s="1">
         <v>2022</v>
       </c>
       <c r="C121" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="D121" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="B122" s="1">
         <v>2022</v>
       </c>
       <c r="C122" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="D122" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B123" s="1">
         <v>2019</v>
       </c>
       <c r="C123" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="D123" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="B124" s="1">
         <v>2019</v>
       </c>
       <c r="C124" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="D124" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B125" s="1">
         <v>2018</v>
       </c>
       <c r="C125" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="D125" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="B126" s="1">
         <v>2018</v>
       </c>
       <c r="C126" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="D126" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B127" s="1">
         <v>2017</v>
       </c>
       <c r="C127" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="D127" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B128" s="1">
         <v>2017</v>
       </c>
       <c r="C128" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="D128" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B129" s="1">
         <v>2016</v>
       </c>
       <c r="C129" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="D129" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B130" s="1">
         <v>2016</v>
       </c>
       <c r="C130" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="D130" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B131" s="1">
         <v>2015</v>
       </c>
       <c r="C131" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="D131" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="B132" s="1">
         <v>2015</v>
       </c>
       <c r="C132" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="D132" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B133" s="1">
         <v>2014</v>
       </c>
       <c r="C133" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="D133" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="B134" s="1">
         <v>2014</v>
       </c>
       <c r="C134" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="D134" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="B135" s="1">
         <v>2013</v>
       </c>
       <c r="C135" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="D135" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="B136" s="1">
         <v>2013</v>
       </c>
       <c r="C136" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="D136" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B137" s="1">
         <v>2012</v>
       </c>
       <c r="C137" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="D137" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="B138" s="1">
         <v>2012</v>
       </c>
       <c r="C138" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="D138" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="B139" s="1">
         <v>2011</v>
       </c>
       <c r="C139" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="D139" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="B140" s="1">
         <v>2011</v>
       </c>
       <c r="C140" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="D140" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B141" s="1">
         <v>2010</v>
       </c>
       <c r="C141" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="D141" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B142" s="1">
         <v>2010</v>
       </c>
       <c r="C142" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="D142" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="B143" s="1">
         <v>2008</v>
       </c>
       <c r="C143" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="D143" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="B144" s="1">
         <v>2008</v>
       </c>
       <c r="C144" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="D144" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="B145" s="1">
         <v>2007</v>
       </c>
       <c r="C145" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="D145" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="B146" s="1">
         <v>2007</v>
       </c>
       <c r="C146" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="D146" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="B147" s="1">
         <v>2006</v>
       </c>
       <c r="C147" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="D147" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="B148" s="1">
         <v>2006</v>
       </c>
       <c r="C148" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="D148" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="B149" s="1">
         <v>2005</v>
       </c>
       <c r="C149" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="D149" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="B150" s="1">
         <v>2005</v>
       </c>
       <c r="C150" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="D150" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="B151" s="1">
         <v>2004</v>
       </c>
       <c r="C151" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="D151" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="B152" s="1">
         <v>2004</v>
       </c>
       <c r="C152" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="D152" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="B153" s="1">
         <v>2002</v>
       </c>
       <c r="C153" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="D153" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="B154" s="1">
         <v>2002</v>
       </c>
       <c r="C154" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="D154" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B155" s="1">
         <v>2019</v>
       </c>
       <c r="C155" t="s">
+        <v>96</v>
+      </c>
+      <c r="D155" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A156" t="s">
         <v>61</v>
-      </c>
-      <c r="D155" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A156" t="s">
-        <v>79</v>
       </c>
       <c r="B156" s="1">
         <v>2017</v>
       </c>
       <c r="C156" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="D156" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>3</v>
       </c>
@@ -2967,13 +2934,13 @@
         <v>2011</v>
       </c>
       <c r="C157" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="D157" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>3</v>
       </c>
@@ -2981,13 +2948,13 @@
         <v>2010</v>
       </c>
       <c r="C158" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="D158" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>3</v>
       </c>
@@ -2995,139 +2962,139 @@
         <v>2009</v>
       </c>
       <c r="C159" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="D159" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B160" s="1">
         <v>2002</v>
       </c>
       <c r="C160" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="D160" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B161" s="1">
         <v>2001</v>
       </c>
       <c r="C161" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="D161" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="B162" s="1">
         <v>2024</v>
       </c>
       <c r="C162" t="s">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="D162" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="B163" s="1">
         <v>2023</v>
       </c>
       <c r="C163" t="s">
+        <v>96</v>
+      </c>
+      <c r="D163" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A164" t="s">
         <v>53</v>
-      </c>
-      <c r="D163" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A164" t="s">
-        <v>70</v>
       </c>
       <c r="B164" s="1">
         <v>2022</v>
       </c>
       <c r="C164" t="s">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="D164" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="B165" s="1">
         <v>2019</v>
       </c>
       <c r="C165" t="s">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="D165" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="B166" s="1">
         <v>2015</v>
       </c>
       <c r="C166" t="s">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="D166" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B167" s="1">
         <v>2010</v>
       </c>
       <c r="C167" t="s">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="D167" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B168" s="1">
         <v>2009</v>
       </c>
       <c r="C168" t="s">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="D168" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>3</v>
       </c>
@@ -3135,993 +3102,993 @@
         <v>2008</v>
       </c>
       <c r="C169" t="s">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="D169" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="B170" s="1">
         <v>2007</v>
       </c>
       <c r="C170" t="s">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="D170" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="B171" s="1">
         <v>2006</v>
       </c>
       <c r="C171" t="s">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="D171" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="B172" s="1">
         <v>2005</v>
       </c>
       <c r="C172" t="s">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="D172" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="B173" s="1">
         <v>2004</v>
       </c>
       <c r="C173" t="s">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="D173" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B174" s="1">
         <v>2024</v>
       </c>
       <c r="C174" t="s">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="D174" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="B175" s="1">
         <v>2023</v>
       </c>
       <c r="C175" t="s">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="D175" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="B176" s="1">
         <v>2022</v>
       </c>
       <c r="C176" t="s">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="D176" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B177" s="1">
         <v>2019</v>
       </c>
       <c r="C177" t="s">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="D177" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B178" s="1">
         <v>2018</v>
       </c>
       <c r="C178" t="s">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="D178" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B179" s="1">
         <v>2016</v>
       </c>
       <c r="C179" t="s">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="D179" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="B180" s="1">
         <v>2015</v>
       </c>
       <c r="C180" t="s">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="D180" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="B181" s="1">
         <v>2011</v>
       </c>
       <c r="C181" t="s">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="D181" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="B182" s="1">
         <v>2009</v>
       </c>
       <c r="C182" t="s">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="D182" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="B183" s="1">
         <v>2008</v>
       </c>
       <c r="C183" t="s">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="D183" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="B184" s="1">
         <v>2007</v>
       </c>
       <c r="C184" t="s">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="D184" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="B185" s="1">
         <v>2006</v>
       </c>
       <c r="C185" t="s">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="D185" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="B186" s="1">
         <v>2004</v>
       </c>
       <c r="C186" t="s">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="D186" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="B187" s="1">
         <v>2002</v>
       </c>
       <c r="C187" t="s">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="D187" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="B188" s="1">
         <v>2023</v>
       </c>
       <c r="C188" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="D188" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="B189" s="1">
         <v>2022</v>
       </c>
       <c r="C189" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="D189" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B190" s="1">
         <v>2019</v>
       </c>
       <c r="C190" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="D190" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
-        <v>77</v>
+        <v>24</v>
       </c>
       <c r="B191" s="1">
         <v>2018</v>
       </c>
       <c r="C191" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="D191" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="B192" s="1">
         <v>2017</v>
       </c>
       <c r="C192" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="D192" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B193" s="1">
         <v>2016</v>
       </c>
       <c r="C193" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="D193" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="B194" s="1">
         <v>2015</v>
       </c>
       <c r="C194" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="D194" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="B195" s="1">
         <v>2014</v>
       </c>
       <c r="C195" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="D195" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B196" s="1">
         <v>2013</v>
       </c>
       <c r="C196" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="D196" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="B197" s="1">
         <v>2012</v>
       </c>
       <c r="C197" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="D197" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="B198" s="1">
         <v>2010</v>
       </c>
       <c r="C198" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="D198" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="B199" s="1">
         <v>2009</v>
       </c>
       <c r="C199" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="D199" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="B200" s="1">
         <v>2008</v>
       </c>
       <c r="C200" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="D200" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="B201" s="1">
         <v>2007</v>
       </c>
       <c r="C201" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="D201" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="B202" s="1">
         <v>2006</v>
       </c>
       <c r="C202" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="D202" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="B203" s="1">
         <v>2004</v>
       </c>
       <c r="C203" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="D203" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="B204" s="1">
         <v>2023</v>
       </c>
       <c r="C204" t="s">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="D204" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B205" s="1">
         <v>2022</v>
       </c>
       <c r="C205" t="s">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="D205" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B206" s="1">
         <v>2019</v>
       </c>
       <c r="C206" t="s">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="D206" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B207" s="1">
         <v>2018</v>
       </c>
       <c r="C207" t="s">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="D207" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B208" s="1">
         <v>2016</v>
       </c>
       <c r="C208" t="s">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="D208" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B209" s="1">
         <v>2015</v>
       </c>
       <c r="C209" t="s">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="D209" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B210" s="1">
         <v>2014</v>
       </c>
       <c r="C210" t="s">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="D210" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B211" s="1">
         <v>2013</v>
       </c>
       <c r="C211" t="s">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="D211" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="B212" s="1">
         <v>2011</v>
       </c>
       <c r="C212" t="s">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="D212" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B213" s="1">
         <v>2010</v>
       </c>
       <c r="C213" t="s">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="D213" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B214" s="1">
         <v>2009</v>
       </c>
       <c r="C214" t="s">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="D214" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="B215" s="1">
         <v>2008</v>
       </c>
       <c r="C215" t="s">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="D215" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="B216" s="1">
         <v>2007</v>
       </c>
       <c r="C216" t="s">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="D216" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="B217" s="1">
         <v>2005</v>
       </c>
       <c r="C217" t="s">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="D217" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="B218" s="1">
         <v>2004</v>
       </c>
       <c r="C218" t="s">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="D218" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="B219" s="1">
         <v>2001</v>
       </c>
       <c r="C219" t="s">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="D219" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B220" s="1">
         <v>2023</v>
       </c>
       <c r="C220" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="D220" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="B221" s="1">
         <v>2022</v>
       </c>
       <c r="C221" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="D221" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="B222" s="1">
         <v>2019</v>
       </c>
       <c r="C222" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="D222" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="B223" s="1">
         <v>2018</v>
       </c>
       <c r="C223" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="D223" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B224" s="1">
         <v>2017</v>
       </c>
       <c r="C224" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="D224" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="B225" s="1">
         <v>2016</v>
       </c>
       <c r="C225" t="s">
+        <v>96</v>
+      </c>
+      <c r="D225" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A226" t="s">
         <v>66</v>
-      </c>
-      <c r="D225" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A226" t="s">
-        <v>84</v>
       </c>
       <c r="B226" s="1">
         <v>2015</v>
       </c>
       <c r="C226" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="D226" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B227" s="1">
         <v>2014</v>
       </c>
       <c r="C227" t="s">
+        <v>96</v>
+      </c>
+      <c r="D227" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A228" t="s">
         <v>66</v>
-      </c>
-      <c r="D227" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A228" t="s">
-        <v>84</v>
       </c>
       <c r="B228" s="1">
         <v>2013</v>
       </c>
       <c r="C228" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="D228" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="B229" s="1">
         <v>2012</v>
       </c>
       <c r="C229" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="D229" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B230" s="1">
         <v>2011</v>
       </c>
       <c r="C230" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="D230" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="B231" s="1">
         <v>2010</v>
       </c>
       <c r="C231" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="D231" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="B232" s="1">
         <v>2009</v>
       </c>
       <c r="C232" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="D232" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="B233" s="1">
         <v>2008</v>
       </c>
       <c r="C233" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="D233" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="B234" s="1">
         <v>2007</v>
       </c>
       <c r="C234" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="D234" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="B235" s="1">
         <v>2006</v>
       </c>
       <c r="C235" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="D235" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="B236" s="1">
         <v>2005</v>
       </c>
       <c r="C236" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="D236" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="B237" s="1">
         <v>2004</v>
       </c>
       <c r="C237" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="D237" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="B238" s="1">
         <v>2003</v>
       </c>
       <c r="C238" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="D238" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="B239" s="1">
         <v>2001</v>
       </c>
       <c r="C239" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="D239" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>3</v>
       </c>
@@ -4129,141 +4096,211 @@
         <v>2010</v>
       </c>
       <c r="C240" t="s">
-        <v>5</v>
+        <v>101</v>
       </c>
       <c r="D240" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
-        <v>4</v>
+        <v>72</v>
       </c>
       <c r="B241" s="1">
         <v>2009</v>
       </c>
       <c r="C241" t="s">
-        <v>5</v>
+        <v>101</v>
       </c>
       <c r="D241" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="B242" s="1">
         <v>2009</v>
       </c>
       <c r="C242" t="s">
-        <v>8</v>
+        <v>101</v>
       </c>
       <c r="D242" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
-        <v>3</v>
+        <v>72</v>
       </c>
       <c r="B243" s="1">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="C243" t="s">
-        <v>6</v>
+        <v>97</v>
       </c>
       <c r="D243" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="B244" s="1">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="C244" t="s">
-        <v>6</v>
+        <v>97</v>
       </c>
       <c r="D244" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>3</v>
       </c>
       <c r="B245" s="1">
+        <v>2011</v>
+      </c>
+      <c r="C245" t="s">
+        <v>97</v>
+      </c>
+      <c r="D245" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A246" t="s">
+        <v>3</v>
+      </c>
+      <c r="B246" s="1">
+        <v>2010</v>
+      </c>
+      <c r="C246" t="s">
+        <v>97</v>
+      </c>
+      <c r="D246" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A247" t="s">
+        <v>3</v>
+      </c>
+      <c r="B247" s="1">
         <v>2009</v>
       </c>
-      <c r="C245" t="s">
+      <c r="C247" t="s">
+        <v>97</v>
+      </c>
+      <c r="D247" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A248" t="s">
+        <v>43</v>
+      </c>
+      <c r="B248" s="1">
+        <v>2007</v>
+      </c>
+      <c r="C248" t="s">
+        <v>97</v>
+      </c>
+      <c r="D248" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A249" t="s">
+        <v>72</v>
+      </c>
+      <c r="B249" s="1">
+        <v>2007</v>
+      </c>
+      <c r="C249" t="s">
+        <v>97</v>
+      </c>
+      <c r="D249" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A250" t="s">
+        <v>4</v>
+      </c>
+      <c r="B250" s="1">
+        <v>2002</v>
+      </c>
+      <c r="C250" t="s">
+        <v>97</v>
+      </c>
+      <c r="D250" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A251" t="s">
+        <v>5</v>
+      </c>
+      <c r="B251" s="1">
+        <v>2019</v>
+      </c>
+      <c r="C251" t="s">
         <v>6</v>
       </c>
-      <c r="D245" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A246" t="s">
-        <v>9</v>
-      </c>
-      <c r="B246" s="1">
-        <v>2007</v>
-      </c>
-      <c r="C246" t="s">
-        <v>6</v>
-      </c>
-      <c r="D246" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A247" t="s">
-        <v>10</v>
-      </c>
-      <c r="B247" s="1">
-        <v>2002</v>
-      </c>
-      <c r="C247" t="s">
-        <v>6</v>
-      </c>
-      <c r="D247" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A248" t="s">
-        <v>11</v>
-      </c>
-      <c r="B248" s="1">
-        <v>2019</v>
-      </c>
-      <c r="C248" t="s">
-        <v>12</v>
-      </c>
-      <c r="D248" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A249" t="s">
-        <v>51</v>
-      </c>
-      <c r="B249" s="1">
-        <v>2019</v>
-      </c>
-      <c r="C249" t="s">
-        <v>52</v>
-      </c>
-      <c r="D249" t="s">
-        <v>112</v>
+      <c r="D251" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A252" t="s">
+        <v>98</v>
+      </c>
+      <c r="B252" s="1">
+        <v>2022</v>
+      </c>
+      <c r="C252" t="s">
+        <v>99</v>
+      </c>
+      <c r="D252" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A253" t="s">
+        <v>100</v>
+      </c>
+      <c r="B253" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C253" t="s">
+        <v>99</v>
+      </c>
+      <c r="D253" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A254" t="s">
+        <v>100</v>
+      </c>
+      <c r="B254" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C254" t="s">
+        <v>99</v>
+      </c>
+      <c r="D254" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D249">
-    <sortCondition ref="C1:C249"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D251">
+    <sortCondition ref="C1:C251"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
